--- a/Document/My Ais/T9/T9_Test_MyAIS_APP_FBB_TH.xlsx
+++ b/Document/My Ais/T9/T9_Test_MyAIS_APP_FBB_TH.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="1630">
   <si>
     <t>ADVANCE INFO SERVICE (AIS)</t>
   </si>
@@ -19511,6 +19511,15 @@
   </si>
   <si>
     <t>F4_Hamburger_6_1_Y_2_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_6_1_Y_1_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_6_1_Y_2_2</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_6_1_Y_3_2</t>
   </si>
 </sst>
 </file>
@@ -22133,354 +22142,6 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="46" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="44" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="21" borderId="46" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="19" borderId="41" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="42" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="11" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="39" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="41" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="42" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="43" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="41" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="42" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="43" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="14" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -22568,9 +22229,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -22591,9 +22249,6 @@
     <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -22604,6 +22259,360 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="33" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="14" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="35" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="37" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="39" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="40" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="41" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="42" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="43" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="41" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="42" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="43" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="41" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="42" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="44" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="43" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="19" borderId="46" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="21" borderId="46" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23253,7 +23262,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23297,7 +23306,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23341,7 +23350,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23385,7 +23394,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23429,7 +23438,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23473,7 +23482,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23517,7 +23526,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23561,7 +23570,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23605,7 +23614,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23649,7 +23658,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23693,7 +23702,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23737,7 +23746,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23781,7 +23790,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23825,7 +23834,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23869,7 +23878,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23913,7 +23922,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23957,7 +23966,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24001,7 +24010,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24045,7 +24054,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24089,7 +24098,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24133,7 +24142,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24177,7 +24186,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24221,7 +24230,7 @@
         <xdr:cNvPr id="24" name="Picture 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24265,7 +24274,7 @@
         <xdr:cNvPr id="25" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24309,7 +24318,7 @@
         <xdr:cNvPr id="26" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24348,7 +24357,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24387,7 +24396,7 @@
         <xdr:cNvPr id="28" name="Picture 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24426,7 +24435,7 @@
         <xdr:cNvPr id="29" name="Picture 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B7204DC-B61A-46E6-84DA-915C26DF0079}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7204DC-B61A-46E6-84DA-915C26DF0079}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24465,7 +24474,7 @@
         <xdr:cNvPr id="30" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24504,7 +24513,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B672F9C-357F-49E7-8098-B126AA3EEF24}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B672F9C-357F-49E7-8098-B126AA3EEF24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24624,7 +24633,7 @@
         <xdr:cNvPr id="34" name="Picture 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24934,7 +24943,7 @@
         <xdr:cNvPr id="42" name="Picture 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25201,7 +25210,7 @@
         <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB1EE59-264B-4BDF-9F76-B5922BA49F20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25240,7 +25249,7 @@
         <xdr:cNvPr id="50" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFA10B5-8507-4E8D-B170-7DEBB8AC81E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25279,7 +25288,7 @@
         <xdr:cNvPr id="51" name="Picture 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E9E01E-708C-42F6-825C-3359A0079D77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -26126,25 +26135,25 @@
       <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="424" t="s">
+      <c r="C5" s="495" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="425"/>
-      <c r="E5" s="426"/>
+      <c r="D5" s="496"/>
+      <c r="E5" s="497"/>
       <c r="F5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="416"/>
-      <c r="I5" s="416"/>
-      <c r="J5" s="416"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="493"/>
+      <c r="J5" s="493"/>
     </row>
     <row r="6" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="446"/>
-      <c r="D6" s="447"/>
-      <c r="E6" s="448"/>
+      <c r="C6" s="469"/>
+      <c r="D6" s="470"/>
+      <c r="E6" s="471"/>
       <c r="F6" s="7"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -26154,23 +26163,23 @@
       <c r="B7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="427"/>
-      <c r="D7" s="428"/>
-      <c r="E7" s="429"/>
+      <c r="C7" s="498"/>
+      <c r="D7" s="499"/>
+      <c r="E7" s="500"/>
       <c r="F7" s="7"/>
-      <c r="H7" s="416"/>
-      <c r="I7" s="416"/>
-      <c r="J7" s="416"/>
+      <c r="H7" s="493"/>
+      <c r="I7" s="493"/>
+      <c r="J7" s="493"/>
     </row>
     <row r="8" spans="2:10" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="430" t="s">
+      <c r="C8" s="501" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="431"/>
-      <c r="E8" s="432"/>
+      <c r="D8" s="502"/>
+      <c r="E8" s="503"/>
       <c r="F8" s="7"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -26193,58 +26202,58 @@
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B11" s="417" t="s">
+      <c r="B11" s="487" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="418"/>
-      <c r="D11" s="419"/>
-      <c r="E11" s="419"/>
-      <c r="F11" s="420"/>
+      <c r="C11" s="488"/>
+      <c r="D11" s="494"/>
+      <c r="E11" s="494"/>
+      <c r="F11" s="489"/>
     </row>
     <row r="12" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="421"/>
-      <c r="D12" s="422"/>
-      <c r="E12" s="422"/>
-      <c r="F12" s="423"/>
+      <c r="C12" s="480"/>
+      <c r="D12" s="482"/>
+      <c r="E12" s="482"/>
+      <c r="F12" s="483"/>
     </row>
     <row r="13" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="421"/>
-      <c r="D13" s="422"/>
-      <c r="E13" s="422"/>
-      <c r="F13" s="423"/>
+      <c r="C13" s="480"/>
+      <c r="D13" s="482"/>
+      <c r="E13" s="482"/>
+      <c r="F13" s="483"/>
     </row>
     <row r="14" spans="2:10" s="8" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="421"/>
-      <c r="D14" s="422"/>
-      <c r="E14" s="422"/>
-      <c r="F14" s="423"/>
+      <c r="C14" s="480"/>
+      <c r="D14" s="482"/>
+      <c r="E14" s="482"/>
+      <c r="F14" s="483"/>
     </row>
     <row r="15" spans="2:10" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="421"/>
-      <c r="D15" s="422"/>
-      <c r="E15" s="422"/>
-      <c r="F15" s="423"/>
+      <c r="C15" s="480"/>
+      <c r="D15" s="482"/>
+      <c r="E15" s="482"/>
+      <c r="F15" s="483"/>
     </row>
     <row r="16" spans="2:10" s="8" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="457"/>
-      <c r="D16" s="458"/>
-      <c r="E16" s="458"/>
-      <c r="F16" s="459"/>
+      <c r="C16" s="484"/>
+      <c r="D16" s="485"/>
+      <c r="E16" s="485"/>
+      <c r="F16" s="486"/>
     </row>
     <row r="17" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -26254,13 +26263,13 @@
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B18" s="417" t="s">
+      <c r="B18" s="487" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="418"/>
-      <c r="D18" s="418"/>
-      <c r="E18" s="418"/>
-      <c r="F18" s="420"/>
+      <c r="C18" s="488"/>
+      <c r="D18" s="488"/>
+      <c r="E18" s="488"/>
+      <c r="F18" s="489"/>
     </row>
     <row r="19" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
@@ -26272,10 +26281,10 @@
       <c r="D19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="452" t="s">
+      <c r="E19" s="475" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="460"/>
+      <c r="F19" s="490"/>
     </row>
     <row r="20" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
@@ -26287,10 +26296,10 @@
       <c r="D20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="421" t="s">
+      <c r="E20" s="480" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="433"/>
+      <c r="F20" s="481"/>
     </row>
     <row r="21" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
@@ -26300,66 +26309,66 @@
         <v>179</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="421" t="s">
+      <c r="E21" s="480" t="s">
         <v>180</v>
       </c>
-      <c r="F21" s="433"/>
+      <c r="F21" s="481"/>
     </row>
     <row r="22" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="16"/>
       <c r="C22" s="17"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="421"/>
-      <c r="F22" s="433"/>
+      <c r="E22" s="480"/>
+      <c r="F22" s="481"/>
     </row>
     <row r="23" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="421"/>
-      <c r="F23" s="433"/>
+      <c r="E23" s="480"/>
+      <c r="F23" s="481"/>
     </row>
     <row r="24" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="421"/>
-      <c r="F24" s="433"/>
+      <c r="E24" s="480"/>
+      <c r="F24" s="481"/>
     </row>
     <row r="25" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
       <c r="D25" s="19"/>
-      <c r="E25" s="421"/>
-      <c r="F25" s="433"/>
+      <c r="E25" s="480"/>
+      <c r="F25" s="481"/>
     </row>
     <row r="26" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="19"/>
-      <c r="E26" s="421"/>
-      <c r="F26" s="433"/>
+      <c r="E26" s="480"/>
+      <c r="F26" s="481"/>
     </row>
     <row r="27" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="421"/>
-      <c r="F27" s="433"/>
+      <c r="E27" s="480"/>
+      <c r="F27" s="481"/>
     </row>
     <row r="28" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="16"/>
       <c r="C28" s="20"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="421"/>
-      <c r="F28" s="433"/>
+      <c r="E28" s="480"/>
+      <c r="F28" s="481"/>
     </row>
     <row r="29" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="22"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="434"/>
-      <c r="F29" s="435"/>
+      <c r="E29" s="491"/>
+      <c r="F29" s="492"/>
     </row>
     <row r="30" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
@@ -26369,67 +26378,67 @@
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B31" s="449" t="s">
+      <c r="B31" s="472" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="450"/>
-      <c r="D31" s="450"/>
-      <c r="E31" s="451"/>
+      <c r="C31" s="473"/>
+      <c r="D31" s="473"/>
+      <c r="E31" s="474"/>
       <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="452" t="s">
+      <c r="C32" s="475" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="453"/>
-      <c r="E32" s="453"/>
+      <c r="D32" s="476"/>
+      <c r="E32" s="476"/>
       <c r="F32" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
-      <c r="C33" s="438"/>
-      <c r="D33" s="439"/>
-      <c r="E33" s="439"/>
+      <c r="C33" s="461"/>
+      <c r="D33" s="462"/>
+      <c r="E33" s="462"/>
       <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
-      <c r="C34" s="454"/>
-      <c r="D34" s="455"/>
-      <c r="E34" s="456"/>
+      <c r="C34" s="477"/>
+      <c r="D34" s="478"/>
+      <c r="E34" s="479"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
-      <c r="C35" s="436"/>
-      <c r="D35" s="437"/>
-      <c r="E35" s="437"/>
+      <c r="C35" s="459"/>
+      <c r="D35" s="460"/>
+      <c r="E35" s="460"/>
       <c r="F35" s="28"/>
     </row>
     <row r="36" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
-      <c r="C36" s="438"/>
-      <c r="D36" s="439"/>
-      <c r="E36" s="439"/>
+      <c r="C36" s="461"/>
+      <c r="D36" s="462"/>
+      <c r="E36" s="462"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B37" s="27"/>
-      <c r="C37" s="440"/>
-      <c r="D37" s="441"/>
-      <c r="E37" s="442"/>
+      <c r="C37" s="463"/>
+      <c r="D37" s="464"/>
+      <c r="E37" s="465"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="21"/>
-      <c r="C38" s="443"/>
-      <c r="D38" s="444"/>
-      <c r="E38" s="445"/>
+      <c r="C38" s="466"/>
+      <c r="D38" s="467"/>
+      <c r="E38" s="468"/>
       <c r="F38" s="29"/>
     </row>
     <row r="39" spans="2:6" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -26455,6 +26464,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -26471,22 +26496,6 @@
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26553,19 +26562,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="506" t="s">
+      <c r="A2" s="552" t="s">
         <v>848</v>
       </c>
-      <c r="B2" s="507"/>
-      <c r="C2" s="507"/>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
-      <c r="H2" s="507"/>
-      <c r="I2" s="507"/>
-      <c r="J2" s="507"/>
-      <c r="K2" s="508"/>
+      <c r="B2" s="553"/>
+      <c r="C2" s="553"/>
+      <c r="D2" s="553"/>
+      <c r="E2" s="553"/>
+      <c r="F2" s="553"/>
+      <c r="G2" s="553"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="553"/>
+      <c r="J2" s="553"/>
+      <c r="K2" s="554"/>
     </row>
     <row r="3" spans="1:12" ht="180" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="133" t="s">
@@ -27672,19 +27681,19 @@
       <c r="K56" s="327"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="506" t="s">
+      <c r="A57" s="552" t="s">
         <v>949</v>
       </c>
-      <c r="B57" s="507"/>
-      <c r="C57" s="507"/>
-      <c r="D57" s="507"/>
-      <c r="E57" s="507"/>
-      <c r="F57" s="507"/>
-      <c r="G57" s="507"/>
-      <c r="H57" s="507"/>
-      <c r="I57" s="507"/>
-      <c r="J57" s="507"/>
-      <c r="K57" s="508"/>
+      <c r="B57" s="553"/>
+      <c r="C57" s="553"/>
+      <c r="D57" s="553"/>
+      <c r="E57" s="553"/>
+      <c r="F57" s="553"/>
+      <c r="G57" s="553"/>
+      <c r="H57" s="553"/>
+      <c r="I57" s="553"/>
+      <c r="J57" s="553"/>
+      <c r="K57" s="554"/>
     </row>
     <row r="58" spans="1:11" s="95" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A58" s="133" t="s">
@@ -27792,19 +27801,19 @@
       <c r="K62" s="334"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="506" t="s">
+      <c r="A63" s="552" t="s">
         <v>962</v>
       </c>
-      <c r="B63" s="507"/>
-      <c r="C63" s="507"/>
-      <c r="D63" s="507"/>
-      <c r="E63" s="507"/>
-      <c r="F63" s="507"/>
-      <c r="G63" s="507"/>
-      <c r="H63" s="507"/>
-      <c r="I63" s="507"/>
-      <c r="J63" s="507"/>
-      <c r="K63" s="508"/>
+      <c r="B63" s="553"/>
+      <c r="C63" s="553"/>
+      <c r="D63" s="553"/>
+      <c r="E63" s="553"/>
+      <c r="F63" s="553"/>
+      <c r="G63" s="553"/>
+      <c r="H63" s="553"/>
+      <c r="I63" s="553"/>
+      <c r="J63" s="553"/>
+      <c r="K63" s="554"/>
     </row>
     <row r="64" spans="1:11" s="95" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A64" s="88" t="s">
@@ -31377,86 +31386,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="527" t="s">
+      <c r="A1" s="570" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="510" t="s">
+      <c r="B1" s="569" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="510" t="s">
+      <c r="C1" s="569" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="510" t="s">
+      <c r="D1" s="569" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="510" t="s">
+      <c r="E1" s="569" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="510" t="s">
+      <c r="F1" s="569" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="510" t="s">
+      <c r="G1" s="569" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="510" t="s">
+      <c r="H1" s="569" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="510" t="s">
+      <c r="I1" s="569" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="510" t="s">
+      <c r="J1" s="569" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="519" t="s">
+      <c r="K1" s="555" t="s">
         <v>396</v>
       </c>
-      <c r="L1" s="520" t="s">
+      <c r="L1" s="557" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="511"/>
-      <c r="B2" s="511"/>
-      <c r="C2" s="511"/>
-      <c r="D2" s="511"/>
-      <c r="E2" s="511"/>
-      <c r="F2" s="511"/>
-      <c r="G2" s="511"/>
-      <c r="H2" s="511"/>
-      <c r="I2" s="511"/>
-      <c r="J2" s="511"/>
-      <c r="K2" s="511"/>
-      <c r="L2" s="514"/>
+      <c r="A2" s="556"/>
+      <c r="B2" s="556"/>
+      <c r="C2" s="556"/>
+      <c r="D2" s="556"/>
+      <c r="E2" s="556"/>
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="556"/>
+      <c r="I2" s="556"/>
+      <c r="J2" s="556"/>
+      <c r="K2" s="556"/>
+      <c r="L2" s="558"/>
     </row>
     <row r="3" spans="1:12" s="187" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="521" t="s">
+      <c r="A3" s="559" t="s">
         <v>398</v>
       </c>
-      <c r="B3" s="522"/>
-      <c r="C3" s="522"/>
-      <c r="D3" s="522"/>
-      <c r="E3" s="522"/>
-      <c r="F3" s="522"/>
-      <c r="G3" s="522"/>
-      <c r="H3" s="522"/>
-      <c r="I3" s="522"/>
-      <c r="J3" s="523"/>
+      <c r="B3" s="560"/>
+      <c r="C3" s="560"/>
+      <c r="D3" s="560"/>
+      <c r="E3" s="560"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="560"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
       <c r="K3" s="185"/>
       <c r="L3" s="186"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="524" t="s">
+      <c r="A4" s="562" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="525"/>
-      <c r="C4" s="525"/>
-      <c r="D4" s="525"/>
-      <c r="E4" s="525"/>
-      <c r="F4" s="525"/>
-      <c r="G4" s="525"/>
-      <c r="H4" s="525"/>
-      <c r="I4" s="525"/>
-      <c r="J4" s="526"/>
+      <c r="B4" s="563"/>
+      <c r="C4" s="563"/>
+      <c r="D4" s="563"/>
+      <c r="E4" s="563"/>
+      <c r="F4" s="563"/>
+      <c r="G4" s="563"/>
+      <c r="H4" s="563"/>
+      <c r="I4" s="563"/>
+      <c r="J4" s="564"/>
       <c r="K4" s="188"/>
       <c r="L4" s="189"/>
     </row>
@@ -31604,18 +31613,18 @@
       <c r="L10" s="214"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="516" t="s">
+      <c r="A11" s="565" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="517"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="517"/>
-      <c r="E11" s="517"/>
-      <c r="F11" s="517"/>
-      <c r="G11" s="517"/>
-      <c r="H11" s="517"/>
-      <c r="I11" s="517"/>
-      <c r="J11" s="518"/>
+      <c r="B11" s="566"/>
+      <c r="C11" s="567"/>
+      <c r="D11" s="566"/>
+      <c r="E11" s="566"/>
+      <c r="F11" s="566"/>
+      <c r="G11" s="566"/>
+      <c r="H11" s="566"/>
+      <c r="I11" s="566"/>
+      <c r="J11" s="568"/>
       <c r="K11" s="215"/>
       <c r="L11" s="215"/>
     </row>
@@ -31668,18 +31677,18 @@
       <c r="L13" s="225"/>
     </row>
     <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="516" t="s">
+      <c r="A14" s="565" t="s">
         <v>422</v>
       </c>
-      <c r="B14" s="517"/>
-      <c r="C14" s="517"/>
-      <c r="D14" s="517"/>
-      <c r="E14" s="517"/>
-      <c r="F14" s="517"/>
-      <c r="G14" s="517"/>
-      <c r="H14" s="517"/>
-      <c r="I14" s="517"/>
-      <c r="J14" s="518"/>
+      <c r="B14" s="566"/>
+      <c r="C14" s="566"/>
+      <c r="D14" s="566"/>
+      <c r="E14" s="566"/>
+      <c r="F14" s="566"/>
+      <c r="G14" s="566"/>
+      <c r="H14" s="566"/>
+      <c r="I14" s="566"/>
+      <c r="J14" s="568"/>
       <c r="K14" s="224"/>
       <c r="L14" s="225"/>
     </row>
@@ -31732,18 +31741,18 @@
       <c r="L16" s="233"/>
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="512" t="s">
+      <c r="A17" s="571" t="s">
         <v>430</v>
       </c>
-      <c r="B17" s="513"/>
-      <c r="C17" s="513"/>
-      <c r="D17" s="513"/>
-      <c r="E17" s="513"/>
-      <c r="F17" s="513"/>
-      <c r="G17" s="513"/>
-      <c r="H17" s="513"/>
-      <c r="I17" s="513"/>
-      <c r="J17" s="514"/>
+      <c r="B17" s="567"/>
+      <c r="C17" s="567"/>
+      <c r="D17" s="567"/>
+      <c r="E17" s="567"/>
+      <c r="F17" s="567"/>
+      <c r="G17" s="567"/>
+      <c r="H17" s="567"/>
+      <c r="I17" s="567"/>
+      <c r="J17" s="558"/>
       <c r="K17" s="234"/>
       <c r="L17" s="235"/>
     </row>
@@ -32014,18 +32023,18 @@
       <c r="L30" s="268"/>
     </row>
     <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="515" t="s">
+      <c r="A31" s="572" t="s">
         <v>466</v>
       </c>
-      <c r="B31" s="513"/>
-      <c r="C31" s="513"/>
-      <c r="D31" s="513"/>
-      <c r="E31" s="513"/>
-      <c r="F31" s="513"/>
-      <c r="G31" s="513"/>
-      <c r="H31" s="513"/>
-      <c r="I31" s="513"/>
-      <c r="J31" s="514"/>
+      <c r="B31" s="567"/>
+      <c r="C31" s="567"/>
+      <c r="D31" s="567"/>
+      <c r="E31" s="567"/>
+      <c r="F31" s="567"/>
+      <c r="G31" s="567"/>
+      <c r="H31" s="567"/>
+      <c r="I31" s="567"/>
+      <c r="J31" s="558"/>
       <c r="K31" s="269"/>
       <c r="L31" s="269"/>
     </row>
@@ -44679,6 +44688,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A3:J3"/>
@@ -44694,9 +44706,6 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -46213,10 +46222,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="461" t="s">
+      <c r="A1" s="540" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="461"/>
+      <c r="B1" s="540"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -46251,250 +46260,250 @@
       <c r="AH1" s="38"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="462" t="s">
+      <c r="A2" s="541" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="462" t="s">
+      <c r="B2" s="541" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="462" t="s">
+      <c r="C2" s="541" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="465" t="s">
+      <c r="D2" s="544" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="465"/>
-      <c r="F2" s="465"/>
-      <c r="G2" s="474" t="s">
+      <c r="E2" s="544"/>
+      <c r="F2" s="544"/>
+      <c r="G2" s="510" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="475"/>
-      <c r="I2" s="475"/>
-      <c r="J2" s="476"/>
-      <c r="K2" s="492" t="s">
+      <c r="H2" s="511"/>
+      <c r="I2" s="511"/>
+      <c r="J2" s="516"/>
+      <c r="K2" s="504" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="492"/>
-      <c r="M2" s="474" t="s">
+      <c r="L2" s="504"/>
+      <c r="M2" s="510" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="475"/>
-      <c r="O2" s="476"/>
-      <c r="P2" s="474" t="s">
+      <c r="N2" s="511"/>
+      <c r="O2" s="516"/>
+      <c r="P2" s="510" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="476"/>
-      <c r="R2" s="474" t="s">
+      <c r="Q2" s="516"/>
+      <c r="R2" s="510" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="475"/>
-      <c r="T2" s="474" t="s">
+      <c r="S2" s="511"/>
+      <c r="T2" s="510" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="475"/>
-      <c r="V2" s="475"/>
-      <c r="W2" s="475"/>
-      <c r="X2" s="476"/>
-      <c r="Y2" s="474" t="s">
+      <c r="U2" s="511"/>
+      <c r="V2" s="511"/>
+      <c r="W2" s="511"/>
+      <c r="X2" s="516"/>
+      <c r="Y2" s="510" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" s="475"/>
-      <c r="AA2" s="475"/>
-      <c r="AB2" s="476"/>
-      <c r="AC2" s="468" t="s">
+      <c r="Z2" s="511"/>
+      <c r="AA2" s="511"/>
+      <c r="AB2" s="516"/>
+      <c r="AC2" s="525" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="469"/>
-      <c r="AE2" s="469"/>
-      <c r="AF2" s="484"/>
-      <c r="AG2" s="468" t="s">
+      <c r="AD2" s="526"/>
+      <c r="AE2" s="526"/>
+      <c r="AF2" s="535"/>
+      <c r="AG2" s="525" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="469"/>
-      <c r="AI2" s="469"/>
+      <c r="AH2" s="526"/>
+      <c r="AI2" s="526"/>
     </row>
     <row r="3" spans="1:35" s="43" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="463"/>
-      <c r="B3" s="463"/>
-      <c r="C3" s="463"/>
-      <c r="D3" s="465"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="465"/>
-      <c r="G3" s="470"/>
-      <c r="H3" s="471"/>
-      <c r="I3" s="471"/>
-      <c r="J3" s="477"/>
-      <c r="K3" s="492" t="s">
+      <c r="A3" s="542"/>
+      <c r="B3" s="542"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="544"/>
+      <c r="E3" s="544"/>
+      <c r="F3" s="544"/>
+      <c r="G3" s="512"/>
+      <c r="H3" s="513"/>
+      <c r="I3" s="513"/>
+      <c r="J3" s="517"/>
+      <c r="K3" s="504" t="s">
         <v>66</v>
       </c>
-      <c r="L3" s="492"/>
-      <c r="M3" s="470"/>
-      <c r="N3" s="471"/>
-      <c r="O3" s="477"/>
-      <c r="P3" s="470"/>
-      <c r="Q3" s="477"/>
-      <c r="R3" s="470"/>
-      <c r="S3" s="471"/>
-      <c r="T3" s="470"/>
-      <c r="U3" s="471"/>
-      <c r="V3" s="471"/>
-      <c r="W3" s="471"/>
-      <c r="X3" s="477"/>
-      <c r="Y3" s="470"/>
-      <c r="Z3" s="471"/>
-      <c r="AA3" s="471"/>
-      <c r="AB3" s="477"/>
-      <c r="AC3" s="470"/>
-      <c r="AD3" s="471"/>
-      <c r="AE3" s="471"/>
-      <c r="AF3" s="477"/>
-      <c r="AG3" s="470"/>
-      <c r="AH3" s="471"/>
-      <c r="AI3" s="471"/>
+      <c r="L3" s="504"/>
+      <c r="M3" s="512"/>
+      <c r="N3" s="513"/>
+      <c r="O3" s="517"/>
+      <c r="P3" s="512"/>
+      <c r="Q3" s="517"/>
+      <c r="R3" s="512"/>
+      <c r="S3" s="513"/>
+      <c r="T3" s="512"/>
+      <c r="U3" s="513"/>
+      <c r="V3" s="513"/>
+      <c r="W3" s="513"/>
+      <c r="X3" s="517"/>
+      <c r="Y3" s="512"/>
+      <c r="Z3" s="513"/>
+      <c r="AA3" s="513"/>
+      <c r="AB3" s="517"/>
+      <c r="AC3" s="512"/>
+      <c r="AD3" s="513"/>
+      <c r="AE3" s="513"/>
+      <c r="AF3" s="517"/>
+      <c r="AG3" s="512"/>
+      <c r="AH3" s="513"/>
+      <c r="AI3" s="513"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="463"/>
-      <c r="B4" s="463"/>
-      <c r="C4" s="463"/>
-      <c r="D4" s="466" t="s">
+      <c r="A4" s="542"/>
+      <c r="B4" s="542"/>
+      <c r="C4" s="542"/>
+      <c r="D4" s="523" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="466" t="s">
+      <c r="E4" s="523" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="466" t="s">
+      <c r="F4" s="523" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="490" t="s">
+      <c r="G4" s="521" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="490" t="s">
+      <c r="H4" s="521" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="490" t="s">
+      <c r="I4" s="521" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="490" t="s">
+      <c r="J4" s="521" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="493" t="s">
+      <c r="K4" s="505" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="493" t="s">
+      <c r="L4" s="505" t="s">
         <v>72</v>
       </c>
-      <c r="M4" s="495" t="s">
+      <c r="M4" s="507" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="495" t="s">
+      <c r="N4" s="507" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="499" t="s">
+      <c r="O4" s="518" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="500" t="s">
+      <c r="P4" s="519" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="500" t="s">
+      <c r="Q4" s="519" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="497" t="s">
+      <c r="R4" s="514" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="497" t="s">
+      <c r="S4" s="514" t="s">
         <v>65</v>
       </c>
-      <c r="T4" s="472" t="s">
+      <c r="T4" s="527" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="488" t="s">
+      <c r="U4" s="538" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="489"/>
-      <c r="W4" s="487" t="s">
+      <c r="V4" s="539"/>
+      <c r="W4" s="509" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="487" t="s">
+      <c r="X4" s="509" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="478" t="s">
+      <c r="Y4" s="529" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="478" t="s">
+      <c r="Z4" s="529" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="482" t="s">
+      <c r="AA4" s="533" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="483"/>
-      <c r="AC4" s="480" t="s">
+      <c r="AB4" s="534"/>
+      <c r="AC4" s="531" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="480" t="s">
+      <c r="AD4" s="531" t="s">
         <v>50</v>
       </c>
-      <c r="AE4" s="485" t="s">
+      <c r="AE4" s="536" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="486"/>
-      <c r="AG4" s="466" t="s">
+      <c r="AF4" s="537"/>
+      <c r="AG4" s="523" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="466" t="s">
+      <c r="AH4" s="523" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="466" t="s">
+      <c r="AI4" s="523" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:35" s="45" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="464"/>
-      <c r="B5" s="464"/>
-      <c r="C5" s="464"/>
-      <c r="D5" s="467"/>
-      <c r="E5" s="467"/>
-      <c r="F5" s="467"/>
-      <c r="G5" s="491"/>
-      <c r="H5" s="491"/>
-      <c r="I5" s="491"/>
-      <c r="J5" s="491"/>
-      <c r="K5" s="494"/>
-      <c r="L5" s="494"/>
-      <c r="M5" s="496"/>
-      <c r="N5" s="496"/>
-      <c r="O5" s="496"/>
-      <c r="P5" s="501"/>
-      <c r="Q5" s="501"/>
-      <c r="R5" s="498"/>
-      <c r="S5" s="498"/>
-      <c r="T5" s="473"/>
+      <c r="A5" s="543"/>
+      <c r="B5" s="543"/>
+      <c r="C5" s="543"/>
+      <c r="D5" s="524"/>
+      <c r="E5" s="524"/>
+      <c r="F5" s="524"/>
+      <c r="G5" s="522"/>
+      <c r="H5" s="522"/>
+      <c r="I5" s="522"/>
+      <c r="J5" s="522"/>
+      <c r="K5" s="506"/>
+      <c r="L5" s="506"/>
+      <c r="M5" s="508"/>
+      <c r="N5" s="508"/>
+      <c r="O5" s="508"/>
+      <c r="P5" s="520"/>
+      <c r="Q5" s="520"/>
+      <c r="R5" s="515"/>
+      <c r="S5" s="515"/>
+      <c r="T5" s="528"/>
       <c r="U5" s="60" t="s">
         <v>45</v>
       </c>
       <c r="V5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="487"/>
-      <c r="X5" s="487"/>
-      <c r="Y5" s="479"/>
-      <c r="Z5" s="479"/>
+      <c r="W5" s="509"/>
+      <c r="X5" s="509"/>
+      <c r="Y5" s="530"/>
+      <c r="Z5" s="530"/>
       <c r="AA5" s="52" t="s">
         <v>52</v>
       </c>
       <c r="AB5" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AC5" s="481"/>
-      <c r="AD5" s="481"/>
+      <c r="AC5" s="532"/>
+      <c r="AD5" s="532"/>
       <c r="AE5" s="53" t="s">
         <v>52</v>
       </c>
       <c r="AF5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="467"/>
-      <c r="AH5" s="467"/>
-      <c r="AI5" s="467"/>
+      <c r="AG5" s="524"/>
+      <c r="AH5" s="524"/>
+      <c r="AI5" s="524"/>
     </row>
     <row r="6" spans="1:35" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
@@ -46757,26 +46766,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M2:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G2:J3"/>
-    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:F3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AG2:AI3"/>
     <mergeCell ref="T4:T5"/>
@@ -46793,14 +46790,26 @@
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="X4:X5"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:F3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G2:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M2:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47024,10 +47033,10 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="170"/>
       <c r="B14" s="169"/>
-      <c r="C14" s="502" t="s">
+      <c r="C14" s="545" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="502" t="s">
+      <c r="D14" s="545" t="s">
         <v>112</v>
       </c>
       <c r="E14" s="177" t="s">
@@ -47040,8 +47049,8 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="170"/>
       <c r="B15" s="169"/>
-      <c r="C15" s="503"/>
-      <c r="D15" s="503"/>
+      <c r="C15" s="546"/>
+      <c r="D15" s="546"/>
       <c r="E15" s="177" t="s">
         <v>116</v>
       </c>
@@ -47052,8 +47061,8 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="170"/>
       <c r="B16" s="169"/>
-      <c r="C16" s="503"/>
-      <c r="D16" s="504"/>
+      <c r="C16" s="546"/>
+      <c r="D16" s="547"/>
       <c r="E16" s="177" t="s">
         <v>117</v>
       </c>
@@ -47062,11 +47071,11 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="170"/>
       <c r="B17" s="169"/>
-      <c r="C17" s="503"/>
-      <c r="D17" s="502" t="s">
+      <c r="C17" s="546"/>
+      <c r="D17" s="545" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="502" t="s">
+      <c r="E17" s="545" t="s">
         <v>118</v>
       </c>
       <c r="F17" s="177" t="s">
@@ -47076,9 +47085,9 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="170"/>
       <c r="B18" s="169"/>
-      <c r="C18" s="503"/>
-      <c r="D18" s="503"/>
-      <c r="E18" s="503"/>
+      <c r="C18" s="546"/>
+      <c r="D18" s="546"/>
+      <c r="E18" s="546"/>
       <c r="F18" s="177" t="s">
         <v>120</v>
       </c>
@@ -47086,9 +47095,9 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="170"/>
       <c r="B19" s="169"/>
-      <c r="C19" s="503"/>
-      <c r="D19" s="503"/>
-      <c r="E19" s="504"/>
+      <c r="C19" s="546"/>
+      <c r="D19" s="546"/>
+      <c r="E19" s="547"/>
       <c r="F19" s="177" t="s">
         <v>117</v>
       </c>
@@ -47096,9 +47105,9 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="170"/>
       <c r="B20" s="169"/>
-      <c r="C20" s="503"/>
-      <c r="D20" s="503"/>
-      <c r="E20" s="502" t="s">
+      <c r="C20" s="546"/>
+      <c r="D20" s="546"/>
+      <c r="E20" s="545" t="s">
         <v>96</v>
       </c>
       <c r="F20" s="177" t="s">
@@ -47108,9 +47117,9 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="170"/>
       <c r="B21" s="169"/>
-      <c r="C21" s="503"/>
-      <c r="D21" s="504"/>
-      <c r="E21" s="504"/>
+      <c r="C21" s="546"/>
+      <c r="D21" s="547"/>
+      <c r="E21" s="547"/>
       <c r="F21" s="177" t="s">
         <v>122</v>
       </c>
@@ -47118,8 +47127,8 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="170"/>
       <c r="B22" s="169"/>
-      <c r="C22" s="503"/>
-      <c r="D22" s="502" t="s">
+      <c r="C22" s="546"/>
+      <c r="D22" s="545" t="s">
         <v>114</v>
       </c>
       <c r="E22" s="177" t="s">
@@ -47130,8 +47139,8 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="170"/>
       <c r="B23" s="169"/>
-      <c r="C23" s="503"/>
-      <c r="D23" s="503"/>
+      <c r="C23" s="546"/>
+      <c r="D23" s="546"/>
       <c r="E23" s="177" t="s">
         <v>124</v>
       </c>
@@ -47140,8 +47149,8 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="170"/>
       <c r="B24" s="169"/>
-      <c r="C24" s="504"/>
-      <c r="D24" s="504"/>
+      <c r="C24" s="547"/>
+      <c r="D24" s="547"/>
       <c r="E24" s="177" t="s">
         <v>125</v>
       </c>
@@ -47153,7 +47162,7 @@
       <c r="C25" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="502" t="s">
+      <c r="D25" s="545" t="s">
         <v>126</v>
       </c>
       <c r="E25" s="177" t="s">
@@ -47165,7 +47174,7 @@
       <c r="A26" s="170"/>
       <c r="B26" s="169"/>
       <c r="C26" s="174"/>
-      <c r="D26" s="504"/>
+      <c r="D26" s="547"/>
       <c r="E26" s="177" t="s">
         <v>128</v>
       </c>
@@ -47245,7 +47254,7 @@
       <c r="A34" s="170">
         <v>7</v>
       </c>
-      <c r="B34" s="505" t="s">
+      <c r="B34" s="548" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="172" t="s">
@@ -47257,7 +47266,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="170"/>
-      <c r="B35" s="505"/>
+      <c r="B35" s="548"/>
       <c r="C35" s="179" t="s">
         <v>622</v>
       </c>
@@ -47267,7 +47276,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="170"/>
-      <c r="B36" s="505"/>
+      <c r="B36" s="548"/>
       <c r="C36" s="179" t="s">
         <v>623</v>
       </c>
@@ -47277,7 +47286,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="170"/>
-      <c r="B37" s="505"/>
+      <c r="B37" s="548"/>
       <c r="C37" s="174" t="s">
         <v>89</v>
       </c>
@@ -47287,7 +47296,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="170"/>
-      <c r="B38" s="505"/>
+      <c r="B38" s="548"/>
       <c r="C38" s="174" t="s">
         <v>90</v>
       </c>
@@ -47297,7 +47306,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="170"/>
-      <c r="B39" s="505"/>
+      <c r="B39" s="548"/>
       <c r="C39" s="174" t="s">
         <v>91</v>
       </c>
@@ -47307,7 +47316,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="170"/>
-      <c r="B40" s="505"/>
+      <c r="B40" s="548"/>
       <c r="C40" s="174" t="s">
         <v>92</v>
       </c>
@@ -47317,7 +47326,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="170"/>
-      <c r="B41" s="505"/>
+      <c r="B41" s="548"/>
       <c r="C41" s="174" t="s">
         <v>93</v>
       </c>
@@ -47327,7 +47336,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="170"/>
-      <c r="B42" s="505"/>
+      <c r="B42" s="548"/>
       <c r="C42" s="174" t="s">
         <v>94</v>
       </c>
@@ -47339,7 +47348,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="170"/>
-      <c r="B43" s="505"/>
+      <c r="B43" s="548"/>
       <c r="C43" s="281"/>
       <c r="D43" s="177"/>
       <c r="E43" s="177" t="s">
@@ -47349,7 +47358,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="170"/>
-      <c r="B44" s="505"/>
+      <c r="B44" s="548"/>
       <c r="C44" s="174" t="s">
         <v>95</v>
       </c>
@@ -57961,684 +57970,684 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" style="567" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="567" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="567" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" style="567" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="567" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="567" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="567" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="567" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.375" style="567" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="567" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.375" style="567" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="567" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.125" style="567"/>
+    <col min="1" max="1" width="24.875" style="454" customWidth="1"/>
+    <col min="2" max="2" width="35.5" style="454" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="454" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="454" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="454" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="454" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="454" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="454" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="454" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="454" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="454" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="454" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.125" style="454"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="532" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="528" t="s">
+    <row r="1" spans="1:11" s="420" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="416" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="529" t="s">
+      <c r="B1" s="417" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="529" t="s">
+      <c r="C1" s="417" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="529" t="s">
+      <c r="D1" s="417" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="530" t="s">
+      <c r="E1" s="418" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="531" t="s">
+      <c r="F1" s="419" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="531" t="s">
+      <c r="G1" s="419" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="531" t="s">
+      <c r="H1" s="419" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="531" t="s">
+      <c r="I1" s="419" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="531" t="s">
+      <c r="J1" s="419" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="530" t="s">
+      <c r="K1" s="418" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="536" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="533" t="s">
+    <row r="2" spans="1:11" s="424" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="421" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="534"/>
-      <c r="F2" s="534"/>
-      <c r="G2" s="534"/>
-      <c r="H2" s="534"/>
-      <c r="I2" s="534"/>
-      <c r="J2" s="535"/>
-      <c r="K2" s="535"/>
-    </row>
-    <row r="3" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="537" t="s">
+      <c r="B2" s="421"/>
+      <c r="C2" s="421"/>
+      <c r="D2" s="421"/>
+      <c r="E2" s="422"/>
+      <c r="F2" s="422"/>
+      <c r="G2" s="422"/>
+      <c r="H2" s="422"/>
+      <c r="I2" s="422"/>
+      <c r="J2" s="423"/>
+      <c r="K2" s="423"/>
+    </row>
+    <row r="3" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="425" t="s">
         <v>1598</v>
       </c>
-      <c r="B3" s="538" t="s">
+      <c r="B3" s="426" t="s">
         <v>1556</v>
       </c>
-      <c r="C3" s="539" t="s">
+      <c r="C3" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D3" s="540" t="s">
+      <c r="D3" s="428" t="s">
         <v>1558</v>
       </c>
-      <c r="E3" s="541"/>
-      <c r="F3" s="541"/>
-      <c r="G3" s="541"/>
-      <c r="H3" s="541"/>
-      <c r="I3" s="541"/>
-      <c r="J3" s="541"/>
-      <c r="K3" s="542"/>
-    </row>
-    <row r="4" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="537" t="s">
+      <c r="E3" s="429"/>
+      <c r="F3" s="429"/>
+      <c r="G3" s="429"/>
+      <c r="H3" s="429"/>
+      <c r="I3" s="429"/>
+      <c r="J3" s="429"/>
+      <c r="K3" s="430"/>
+    </row>
+    <row r="4" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="425" t="s">
         <v>1599</v>
       </c>
-      <c r="B4" s="538" t="s">
+      <c r="B4" s="426" t="s">
         <v>1559</v>
       </c>
-      <c r="C4" s="539" t="s">
+      <c r="C4" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D4" s="540" t="s">
+      <c r="D4" s="428" t="s">
         <v>1560</v>
       </c>
-      <c r="E4" s="541"/>
-      <c r="F4" s="541"/>
-      <c r="G4" s="541"/>
-      <c r="H4" s="541"/>
-      <c r="I4" s="541"/>
-      <c r="J4" s="541"/>
-      <c r="K4" s="542"/>
-    </row>
-    <row r="5" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="537" t="s">
+      <c r="E4" s="429"/>
+      <c r="F4" s="429"/>
+      <c r="G4" s="429"/>
+      <c r="H4" s="429"/>
+      <c r="I4" s="429"/>
+      <c r="J4" s="429"/>
+      <c r="K4" s="430"/>
+    </row>
+    <row r="5" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="425" t="s">
         <v>1600</v>
       </c>
-      <c r="B5" s="538" t="s">
+      <c r="B5" s="426" t="s">
         <v>1561</v>
       </c>
-      <c r="C5" s="539" t="s">
+      <c r="C5" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D5" s="540" t="s">
+      <c r="D5" s="428" t="s">
         <v>1562</v>
       </c>
-      <c r="E5" s="541"/>
-      <c r="F5" s="541"/>
-      <c r="G5" s="541"/>
-      <c r="H5" s="541"/>
-      <c r="I5" s="541"/>
-      <c r="J5" s="541"/>
-      <c r="K5" s="542"/>
-    </row>
-    <row r="6" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="537" t="s">
+      <c r="E5" s="429"/>
+      <c r="F5" s="429"/>
+      <c r="G5" s="429"/>
+      <c r="H5" s="429"/>
+      <c r="I5" s="429"/>
+      <c r="J5" s="429"/>
+      <c r="K5" s="430"/>
+    </row>
+    <row r="6" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="425" t="s">
         <v>1601</v>
       </c>
-      <c r="B6" s="544" t="s">
+      <c r="B6" s="432" t="s">
         <v>1563</v>
       </c>
-      <c r="C6" s="539" t="s">
+      <c r="C6" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D6" s="540" t="s">
+      <c r="D6" s="428" t="s">
         <v>1564</v>
       </c>
-      <c r="E6" s="541"/>
-      <c r="F6" s="541"/>
-      <c r="G6" s="541"/>
-      <c r="H6" s="541"/>
-      <c r="I6" s="541"/>
-      <c r="J6" s="541"/>
-      <c r="K6" s="542"/>
-    </row>
-    <row r="7" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="537" t="s">
+      <c r="E6" s="429"/>
+      <c r="F6" s="429"/>
+      <c r="G6" s="429"/>
+      <c r="H6" s="429"/>
+      <c r="I6" s="429"/>
+      <c r="J6" s="429"/>
+      <c r="K6" s="430"/>
+    </row>
+    <row r="7" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="425" t="s">
         <v>1602</v>
       </c>
-      <c r="B7" s="544" t="s">
+      <c r="B7" s="432" t="s">
         <v>1565</v>
       </c>
-      <c r="C7" s="539" t="s">
+      <c r="C7" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D7" s="540" t="s">
+      <c r="D7" s="428" t="s">
         <v>1566</v>
       </c>
-      <c r="E7" s="541"/>
-      <c r="F7" s="541"/>
-      <c r="G7" s="541"/>
-      <c r="H7" s="541"/>
-      <c r="I7" s="541"/>
-      <c r="J7" s="541"/>
-      <c r="K7" s="542"/>
-    </row>
-    <row r="8" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="537" t="s">
+      <c r="E7" s="429"/>
+      <c r="F7" s="429"/>
+      <c r="G7" s="429"/>
+      <c r="H7" s="429"/>
+      <c r="I7" s="429"/>
+      <c r="J7" s="429"/>
+      <c r="K7" s="430"/>
+    </row>
+    <row r="8" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="425" t="s">
         <v>1603</v>
       </c>
-      <c r="B8" s="544" t="s">
+      <c r="B8" s="432" t="s">
         <v>1567</v>
       </c>
-      <c r="C8" s="539" t="s">
+      <c r="C8" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D8" s="540" t="s">
+      <c r="D8" s="428" t="s">
         <v>1568</v>
       </c>
-      <c r="E8" s="541"/>
-      <c r="F8" s="541"/>
-      <c r="G8" s="541"/>
-      <c r="H8" s="541"/>
-      <c r="I8" s="541"/>
-      <c r="J8" s="541"/>
-      <c r="K8" s="542"/>
-    </row>
-    <row r="9" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="537" t="s">
+      <c r="E8" s="429"/>
+      <c r="F8" s="429"/>
+      <c r="G8" s="429"/>
+      <c r="H8" s="429"/>
+      <c r="I8" s="429"/>
+      <c r="J8" s="429"/>
+      <c r="K8" s="430"/>
+    </row>
+    <row r="9" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="425" t="s">
         <v>1604</v>
       </c>
-      <c r="B9" s="544" t="s">
+      <c r="B9" s="432" t="s">
         <v>1569</v>
       </c>
-      <c r="C9" s="539" t="s">
+      <c r="C9" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D9" s="540" t="s">
+      <c r="D9" s="428" t="s">
         <v>1570</v>
       </c>
-      <c r="E9" s="541"/>
-      <c r="F9" s="541"/>
-      <c r="G9" s="541"/>
-      <c r="H9" s="541"/>
-      <c r="I9" s="541"/>
-      <c r="J9" s="541"/>
-      <c r="K9" s="542"/>
-    </row>
-    <row r="10" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="537" t="s">
+      <c r="E9" s="429"/>
+      <c r="F9" s="429"/>
+      <c r="G9" s="429"/>
+      <c r="H9" s="429"/>
+      <c r="I9" s="429"/>
+      <c r="J9" s="429"/>
+      <c r="K9" s="430"/>
+    </row>
+    <row r="10" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="425" t="s">
         <v>1605</v>
       </c>
-      <c r="B10" s="544" t="s">
+      <c r="B10" s="432" t="s">
         <v>1571</v>
       </c>
-      <c r="C10" s="539" t="s">
+      <c r="C10" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D10" s="540" t="s">
+      <c r="D10" s="428" t="s">
         <v>1572</v>
       </c>
-      <c r="E10" s="541"/>
-      <c r="F10" s="541"/>
-      <c r="G10" s="541"/>
-      <c r="H10" s="541"/>
-      <c r="I10" s="541"/>
-      <c r="J10" s="541"/>
-      <c r="K10" s="542"/>
-    </row>
-    <row r="11" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="537" t="s">
+      <c r="E10" s="429"/>
+      <c r="F10" s="429"/>
+      <c r="G10" s="429"/>
+      <c r="H10" s="429"/>
+      <c r="I10" s="429"/>
+      <c r="J10" s="429"/>
+      <c r="K10" s="430"/>
+    </row>
+    <row r="11" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="425" t="s">
         <v>1606</v>
       </c>
-      <c r="B11" s="544" t="s">
+      <c r="B11" s="432" t="s">
         <v>1573</v>
       </c>
-      <c r="C11" s="539" t="s">
+      <c r="C11" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D11" s="540" t="s">
+      <c r="D11" s="428" t="s">
         <v>1574</v>
       </c>
-      <c r="E11" s="541"/>
-      <c r="F11" s="541"/>
-      <c r="G11" s="541"/>
-      <c r="H11" s="541"/>
-      <c r="I11" s="541"/>
-      <c r="J11" s="541"/>
-      <c r="K11" s="542"/>
-    </row>
-    <row r="12" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="537" t="s">
+      <c r="E11" s="429"/>
+      <c r="F11" s="429"/>
+      <c r="G11" s="429"/>
+      <c r="H11" s="429"/>
+      <c r="I11" s="429"/>
+      <c r="J11" s="429"/>
+      <c r="K11" s="430"/>
+    </row>
+    <row r="12" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="425" t="s">
         <v>1607</v>
       </c>
-      <c r="B12" s="544" t="s">
+      <c r="B12" s="432" t="s">
         <v>1575</v>
       </c>
-      <c r="C12" s="539" t="s">
+      <c r="C12" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D12" s="540" t="s">
+      <c r="D12" s="428" t="s">
         <v>1576</v>
       </c>
-      <c r="E12" s="541"/>
-      <c r="F12" s="541"/>
-      <c r="G12" s="541"/>
-      <c r="H12" s="541"/>
-      <c r="I12" s="541"/>
-      <c r="J12" s="541"/>
-      <c r="K12" s="542"/>
-    </row>
-    <row r="13" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="537" t="s">
+      <c r="E12" s="429"/>
+      <c r="F12" s="429"/>
+      <c r="G12" s="429"/>
+      <c r="H12" s="429"/>
+      <c r="I12" s="429"/>
+      <c r="J12" s="429"/>
+      <c r="K12" s="430"/>
+    </row>
+    <row r="13" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="425" t="s">
         <v>1608</v>
       </c>
-      <c r="B13" s="544" t="s">
+      <c r="B13" s="432" t="s">
         <v>1577</v>
       </c>
-      <c r="C13" s="539" t="s">
+      <c r="C13" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D13" s="540" t="s">
+      <c r="D13" s="428" t="s">
         <v>1578</v>
       </c>
-      <c r="E13" s="541"/>
-      <c r="F13" s="541"/>
-      <c r="G13" s="541"/>
-      <c r="H13" s="541"/>
-      <c r="I13" s="541"/>
-      <c r="J13" s="541"/>
-      <c r="K13" s="542"/>
-    </row>
-    <row r="14" spans="1:11" s="536" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="533" t="s">
+      <c r="E13" s="429"/>
+      <c r="F13" s="429"/>
+      <c r="G13" s="429"/>
+      <c r="H13" s="429"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="429"/>
+      <c r="K13" s="430"/>
+    </row>
+    <row r="14" spans="1:11" s="424" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="421" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="533" t="s">
+      <c r="B14" s="421" t="s">
         <v>1579</v>
       </c>
-      <c r="C14" s="533"/>
-      <c r="D14" s="533"/>
-      <c r="E14" s="534"/>
-      <c r="F14" s="534"/>
-      <c r="G14" s="534"/>
-      <c r="H14" s="534"/>
-      <c r="I14" s="534"/>
-      <c r="J14" s="535"/>
-      <c r="K14" s="545"/>
-    </row>
-    <row r="15" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="537" t="s">
+      <c r="C14" s="421"/>
+      <c r="D14" s="421"/>
+      <c r="E14" s="422"/>
+      <c r="F14" s="422"/>
+      <c r="G14" s="422"/>
+      <c r="H14" s="422"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="423"/>
+      <c r="K14" s="433"/>
+    </row>
+    <row r="15" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="425" t="s">
         <v>1609</v>
       </c>
-      <c r="B15" s="538" t="s">
+      <c r="B15" s="426" t="s">
         <v>1556</v>
       </c>
-      <c r="C15" s="539" t="s">
+      <c r="C15" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D15" s="540" t="s">
+      <c r="D15" s="428" t="s">
         <v>1558</v>
       </c>
-      <c r="E15" s="541"/>
-      <c r="F15" s="541"/>
-      <c r="G15" s="541"/>
-      <c r="H15" s="541"/>
-      <c r="I15" s="541"/>
-      <c r="J15" s="541"/>
-      <c r="K15" s="542"/>
-    </row>
-    <row r="16" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="537" t="s">
+      <c r="E15" s="429"/>
+      <c r="F15" s="429"/>
+      <c r="G15" s="429"/>
+      <c r="H15" s="429"/>
+      <c r="I15" s="429"/>
+      <c r="J15" s="429"/>
+      <c r="K15" s="430"/>
+    </row>
+    <row r="16" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="425" t="s">
         <v>1610</v>
       </c>
-      <c r="B16" s="538" t="s">
+      <c r="B16" s="426" t="s">
         <v>1580</v>
       </c>
-      <c r="C16" s="539" t="s">
+      <c r="C16" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D16" s="540" t="s">
+      <c r="D16" s="428" t="s">
         <v>1581</v>
       </c>
-      <c r="E16" s="541"/>
-      <c r="F16" s="541"/>
-      <c r="G16" s="541"/>
-      <c r="H16" s="541"/>
-      <c r="I16" s="541"/>
-      <c r="J16" s="541"/>
-      <c r="K16" s="542"/>
-    </row>
-    <row r="17" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="537" t="s">
+      <c r="E16" s="429"/>
+      <c r="F16" s="429"/>
+      <c r="G16" s="429"/>
+      <c r="H16" s="429"/>
+      <c r="I16" s="429"/>
+      <c r="J16" s="429"/>
+      <c r="K16" s="430"/>
+    </row>
+    <row r="17" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="425" t="s">
         <v>1611</v>
       </c>
-      <c r="B17" s="538" t="s">
+      <c r="B17" s="426" t="s">
         <v>1582</v>
       </c>
-      <c r="C17" s="539" t="s">
+      <c r="C17" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D17" s="540" t="s">
+      <c r="D17" s="428" t="s">
         <v>1583</v>
       </c>
-      <c r="E17" s="541"/>
-      <c r="F17" s="541"/>
-      <c r="G17" s="541"/>
-      <c r="H17" s="541"/>
-      <c r="I17" s="541"/>
-      <c r="J17" s="541"/>
-      <c r="K17" s="542"/>
-    </row>
-    <row r="18" spans="1:11" s="550" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="537" t="s">
+      <c r="E17" s="429"/>
+      <c r="F17" s="429"/>
+      <c r="G17" s="429"/>
+      <c r="H17" s="429"/>
+      <c r="I17" s="429"/>
+      <c r="J17" s="429"/>
+      <c r="K17" s="430"/>
+    </row>
+    <row r="18" spans="1:11" s="438" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="425" t="s">
         <v>1612</v>
       </c>
-      <c r="B18" s="546" t="s">
+      <c r="B18" s="434" t="s">
         <v>1563</v>
       </c>
-      <c r="C18" s="539" t="s">
+      <c r="C18" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D18" s="547" t="s">
+      <c r="D18" s="435" t="s">
         <v>1564</v>
       </c>
-      <c r="E18" s="548"/>
-      <c r="F18" s="548"/>
-      <c r="G18" s="548"/>
-      <c r="H18" s="548"/>
-      <c r="I18" s="548"/>
-      <c r="J18" s="548"/>
-      <c r="K18" s="549"/>
-    </row>
-    <row r="19" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="537" t="s">
+      <c r="E18" s="436"/>
+      <c r="F18" s="436"/>
+      <c r="G18" s="436"/>
+      <c r="H18" s="436"/>
+      <c r="I18" s="436"/>
+      <c r="J18" s="436"/>
+      <c r="K18" s="437"/>
+    </row>
+    <row r="19" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="425" t="s">
         <v>1613</v>
       </c>
-      <c r="B19" s="544" t="s">
+      <c r="B19" s="432" t="s">
         <v>1565</v>
       </c>
-      <c r="C19" s="539" t="s">
+      <c r="C19" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D19" s="540" t="s">
+      <c r="D19" s="428" t="s">
         <v>1566</v>
       </c>
-      <c r="E19" s="541"/>
-      <c r="F19" s="541"/>
-      <c r="G19" s="541"/>
-      <c r="H19" s="541"/>
-      <c r="I19" s="541"/>
-      <c r="J19" s="541"/>
-      <c r="K19" s="542"/>
-    </row>
-    <row r="20" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="537" t="s">
+      <c r="E19" s="429"/>
+      <c r="F19" s="429"/>
+      <c r="G19" s="429"/>
+      <c r="H19" s="429"/>
+      <c r="I19" s="429"/>
+      <c r="J19" s="429"/>
+      <c r="K19" s="430"/>
+    </row>
+    <row r="20" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="425" t="s">
         <v>1614</v>
       </c>
-      <c r="B20" s="544" t="s">
+      <c r="B20" s="432" t="s">
         <v>1567</v>
       </c>
-      <c r="C20" s="539" t="s">
+      <c r="C20" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D20" s="540" t="s">
+      <c r="D20" s="428" t="s">
         <v>1584</v>
       </c>
-      <c r="E20" s="541"/>
-      <c r="F20" s="541"/>
-      <c r="G20" s="541"/>
-      <c r="H20" s="541"/>
-      <c r="I20" s="541"/>
-      <c r="J20" s="541"/>
-      <c r="K20" s="542"/>
-    </row>
-    <row r="21" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="537" t="s">
+      <c r="E20" s="429"/>
+      <c r="F20" s="429"/>
+      <c r="G20" s="429"/>
+      <c r="H20" s="429"/>
+      <c r="I20" s="429"/>
+      <c r="J20" s="429"/>
+      <c r="K20" s="430"/>
+    </row>
+    <row r="21" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="425" t="s">
         <v>1615</v>
       </c>
-      <c r="B21" s="544" t="s">
+      <c r="B21" s="432" t="s">
         <v>1569</v>
       </c>
-      <c r="C21" s="539" t="s">
+      <c r="C21" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D21" s="540" t="s">
+      <c r="D21" s="428" t="s">
         <v>1570</v>
       </c>
-      <c r="E21" s="541"/>
-      <c r="F21" s="541"/>
-      <c r="G21" s="541"/>
-      <c r="H21" s="541"/>
-      <c r="I21" s="541"/>
-      <c r="J21" s="541"/>
-      <c r="K21" s="542"/>
-    </row>
-    <row r="22" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="537" t="s">
+      <c r="E21" s="429"/>
+      <c r="F21" s="429"/>
+      <c r="G21" s="429"/>
+      <c r="H21" s="429"/>
+      <c r="I21" s="429"/>
+      <c r="J21" s="429"/>
+      <c r="K21" s="430"/>
+    </row>
+    <row r="22" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="425" t="s">
         <v>1616</v>
       </c>
-      <c r="B22" s="544" t="s">
+      <c r="B22" s="432" t="s">
         <v>1571</v>
       </c>
-      <c r="C22" s="539" t="s">
+      <c r="C22" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D22" s="540" t="s">
+      <c r="D22" s="428" t="s">
         <v>1572</v>
       </c>
-      <c r="E22" s="541"/>
-      <c r="F22" s="541"/>
-      <c r="G22" s="541"/>
-      <c r="H22" s="541"/>
-      <c r="I22" s="541"/>
-      <c r="J22" s="541"/>
-      <c r="K22" s="542"/>
-    </row>
-    <row r="23" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="537" t="s">
+      <c r="E22" s="429"/>
+      <c r="F22" s="429"/>
+      <c r="G22" s="429"/>
+      <c r="H22" s="429"/>
+      <c r="I22" s="429"/>
+      <c r="J22" s="429"/>
+      <c r="K22" s="430"/>
+    </row>
+    <row r="23" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="425" t="s">
         <v>1617</v>
       </c>
-      <c r="B23" s="544" t="s">
+      <c r="B23" s="432" t="s">
         <v>1573</v>
       </c>
-      <c r="C23" s="539" t="s">
+      <c r="C23" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D23" s="540" t="s">
+      <c r="D23" s="428" t="s">
         <v>1574</v>
       </c>
-      <c r="E23" s="541"/>
-      <c r="F23" s="541"/>
-      <c r="G23" s="541"/>
-      <c r="H23" s="541"/>
-      <c r="I23" s="541"/>
-      <c r="J23" s="541"/>
-      <c r="K23" s="542"/>
-    </row>
-    <row r="24" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="537" t="s">
+      <c r="E23" s="429"/>
+      <c r="F23" s="429"/>
+      <c r="G23" s="429"/>
+      <c r="H23" s="429"/>
+      <c r="I23" s="429"/>
+      <c r="J23" s="429"/>
+      <c r="K23" s="430"/>
+    </row>
+    <row r="24" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="425" t="s">
         <v>1618</v>
       </c>
-      <c r="B24" s="544" t="s">
+      <c r="B24" s="432" t="s">
         <v>1575</v>
       </c>
-      <c r="C24" s="539" t="s">
+      <c r="C24" s="427" t="s">
         <v>1557</v>
       </c>
-      <c r="D24" s="540" t="s">
+      <c r="D24" s="428" t="s">
         <v>1576</v>
       </c>
-      <c r="E24" s="541"/>
-      <c r="F24" s="541"/>
-      <c r="G24" s="541"/>
-      <c r="H24" s="541"/>
-      <c r="I24" s="541"/>
-      <c r="J24" s="541"/>
-      <c r="K24" s="542"/>
-    </row>
-    <row r="25" spans="1:11" s="543" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="551" t="s">
+      <c r="E24" s="429"/>
+      <c r="F24" s="429"/>
+      <c r="G24" s="429"/>
+      <c r="H24" s="429"/>
+      <c r="I24" s="429"/>
+      <c r="J24" s="429"/>
+      <c r="K24" s="430"/>
+    </row>
+    <row r="25" spans="1:11" s="431" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="439" t="s">
         <v>1619</v>
       </c>
-      <c r="B25" s="552" t="s">
+      <c r="B25" s="440" t="s">
         <v>1577</v>
       </c>
-      <c r="C25" s="553" t="s">
+      <c r="C25" s="441" t="s">
         <v>1557</v>
       </c>
-      <c r="D25" s="554" t="s">
+      <c r="D25" s="442" t="s">
         <v>1578</v>
       </c>
-      <c r="E25" s="555"/>
-      <c r="F25" s="555"/>
-      <c r="G25" s="555"/>
-      <c r="H25" s="555"/>
-      <c r="I25" s="555"/>
-      <c r="J25" s="555"/>
-      <c r="K25" s="556"/>
-    </row>
-    <row r="26" spans="1:11" s="559" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="557" t="s">
+      <c r="E25" s="443"/>
+      <c r="F25" s="443"/>
+      <c r="G25" s="443"/>
+      <c r="H25" s="443"/>
+      <c r="I25" s="443"/>
+      <c r="J25" s="443"/>
+      <c r="K25" s="444"/>
+    </row>
+    <row r="26" spans="1:11" s="446" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="549" t="s">
         <v>1585</v>
       </c>
-      <c r="B26" s="557"/>
-      <c r="C26" s="558"/>
-      <c r="D26" s="558"/>
-      <c r="E26" s="558"/>
-      <c r="F26" s="558"/>
-      <c r="G26" s="558"/>
-      <c r="H26" s="558"/>
-      <c r="I26" s="558"/>
-      <c r="J26" s="558"/>
-      <c r="K26" s="558"/>
-    </row>
-    <row r="27" spans="1:11" s="563" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="560" t="s">
+      <c r="B26" s="549"/>
+      <c r="C26" s="445"/>
+      <c r="D26" s="445"/>
+      <c r="E26" s="445"/>
+      <c r="F26" s="445"/>
+      <c r="G26" s="445"/>
+      <c r="H26" s="445"/>
+      <c r="I26" s="445"/>
+      <c r="J26" s="445"/>
+      <c r="K26" s="445"/>
+    </row>
+    <row r="27" spans="1:11" s="450" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="447" t="s">
         <v>1620</v>
       </c>
-      <c r="B27" s="561" t="s">
+      <c r="B27" s="448" t="s">
         <v>1586</v>
       </c>
-      <c r="C27" s="561" t="s">
+      <c r="C27" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D27" s="561" t="s">
+      <c r="D27" s="448" t="s">
         <v>1588</v>
       </c>
-      <c r="E27" s="562"/>
-      <c r="F27" s="562"/>
-      <c r="G27" s="562"/>
-      <c r="H27" s="562"/>
-      <c r="I27" s="562"/>
-      <c r="J27" s="562"/>
-      <c r="K27" s="562"/>
-    </row>
-    <row r="28" spans="1:11" s="563" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="560" t="s">
+      <c r="E27" s="449"/>
+      <c r="F27" s="449"/>
+      <c r="G27" s="449"/>
+      <c r="H27" s="449"/>
+      <c r="I27" s="449"/>
+      <c r="J27" s="449"/>
+      <c r="K27" s="449"/>
+    </row>
+    <row r="28" spans="1:11" s="450" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="447" t="s">
         <v>1621</v>
       </c>
-      <c r="B28" s="561" t="s">
+      <c r="B28" s="448" t="s">
         <v>1589</v>
       </c>
-      <c r="C28" s="561" t="s">
+      <c r="C28" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D28" s="561" t="s">
+      <c r="D28" s="448" t="s">
         <v>1590</v>
       </c>
-      <c r="E28" s="562"/>
-      <c r="F28" s="562"/>
-      <c r="G28" s="562"/>
-      <c r="H28" s="562"/>
-      <c r="I28" s="562"/>
-      <c r="J28" s="562"/>
-      <c r="K28" s="562"/>
-    </row>
-    <row r="29" spans="1:11" s="563" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="560" t="s">
+      <c r="E28" s="449"/>
+      <c r="F28" s="449"/>
+      <c r="G28" s="449"/>
+      <c r="H28" s="449"/>
+      <c r="I28" s="449"/>
+      <c r="J28" s="449"/>
+      <c r="K28" s="449"/>
+    </row>
+    <row r="29" spans="1:11" s="450" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="447" t="s">
         <v>1622</v>
       </c>
-      <c r="B29" s="561" t="s">
+      <c r="B29" s="448" t="s">
         <v>1591</v>
       </c>
-      <c r="C29" s="561" t="s">
+      <c r="C29" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D29" s="561" t="s">
+      <c r="D29" s="448" t="s">
         <v>1592</v>
       </c>
-      <c r="E29" s="562"/>
-      <c r="F29" s="562"/>
-      <c r="G29" s="562"/>
-      <c r="H29" s="562"/>
-      <c r="I29" s="562"/>
-      <c r="J29" s="562"/>
-      <c r="K29" s="562"/>
-    </row>
-    <row r="30" spans="1:11" s="565" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="564" t="s">
+      <c r="E29" s="449"/>
+      <c r="F29" s="449"/>
+      <c r="G29" s="449"/>
+      <c r="H29" s="449"/>
+      <c r="I29" s="449"/>
+      <c r="J29" s="449"/>
+      <c r="K29" s="449"/>
+    </row>
+    <row r="30" spans="1:11" s="452" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="451" t="s">
         <v>1593</v>
       </c>
-      <c r="B30" s="564"/>
-      <c r="C30" s="564"/>
-      <c r="D30" s="564"/>
-      <c r="E30" s="564"/>
-      <c r="F30" s="564"/>
-      <c r="G30" s="564"/>
-      <c r="H30" s="564"/>
-      <c r="I30" s="564"/>
-      <c r="J30" s="564"/>
-      <c r="K30" s="564"/>
-    </row>
-    <row r="31" spans="1:11" s="563" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="560" t="s">
+      <c r="B30" s="451"/>
+      <c r="C30" s="451"/>
+      <c r="D30" s="451"/>
+      <c r="E30" s="451"/>
+      <c r="F30" s="451"/>
+      <c r="G30" s="451"/>
+      <c r="H30" s="451"/>
+      <c r="I30" s="451"/>
+      <c r="J30" s="451"/>
+      <c r="K30" s="451"/>
+    </row>
+    <row r="31" spans="1:11" s="450" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="447" t="s">
         <v>1623</v>
       </c>
-      <c r="B31" s="561" t="s">
+      <c r="B31" s="448" t="s">
         <v>1594</v>
       </c>
-      <c r="C31" s="561" t="s">
+      <c r="C31" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D31" s="561" t="s">
+      <c r="D31" s="448" t="s">
         <v>1595</v>
       </c>
-      <c r="E31" s="562"/>
-      <c r="F31" s="562"/>
-      <c r="G31" s="562"/>
-      <c r="H31" s="562"/>
-      <c r="I31" s="562"/>
-      <c r="J31" s="562"/>
-      <c r="K31" s="562"/>
-    </row>
-    <row r="32" spans="1:11" s="563" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="560" t="s">
+      <c r="E31" s="449"/>
+      <c r="F31" s="449"/>
+      <c r="G31" s="449"/>
+      <c r="H31" s="449"/>
+      <c r="I31" s="449"/>
+      <c r="J31" s="449"/>
+      <c r="K31" s="449"/>
+    </row>
+    <row r="32" spans="1:11" s="450" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="447" t="s">
         <v>1624</v>
       </c>
-      <c r="B32" s="561" t="s">
+      <c r="B32" s="448" t="s">
         <v>1596</v>
       </c>
-      <c r="C32" s="561" t="s">
+      <c r="C32" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D32" s="561" t="s">
+      <c r="D32" s="448" t="s">
         <v>1597</v>
       </c>
-      <c r="E32" s="566"/>
-      <c r="F32" s="566"/>
-      <c r="G32" s="566"/>
-      <c r="H32" s="566"/>
-      <c r="I32" s="566"/>
-      <c r="J32" s="566"/>
-      <c r="K32" s="566"/>
+      <c r="E32" s="453"/>
+      <c r="F32" s="453"/>
+      <c r="G32" s="453"/>
+      <c r="H32" s="453"/>
+      <c r="I32" s="453"/>
+      <c r="J32" s="453"/>
+      <c r="K32" s="453"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -58654,7 +58663,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -58700,10 +58709,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="550" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="509"/>
+      <c r="B2" s="550"/>
       <c r="C2" s="158"/>
       <c r="D2" s="158"/>
       <c r="E2" s="158"/>
@@ -58925,10 +58934,10 @@
       <c r="K12" s="161"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="509" t="s">
+      <c r="A13" s="550" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="509"/>
+      <c r="B13" s="550"/>
       <c r="C13" s="163"/>
       <c r="D13" s="163"/>
       <c r="E13" s="163"/>
@@ -58960,121 +58969,121 @@
       <c r="J14" s="160"/>
       <c r="K14" s="160"/>
     </row>
-    <row r="15" spans="1:11" s="571" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="568" t="s">
+    <row r="15" spans="1:11" s="457" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="551" t="s">
         <v>1585</v>
       </c>
-      <c r="B15" s="568"/>
-      <c r="C15" s="569"/>
-      <c r="D15" s="569"/>
-      <c r="E15" s="569"/>
-      <c r="F15" s="569"/>
-      <c r="G15" s="569"/>
-      <c r="H15" s="569"/>
-      <c r="I15" s="569"/>
-      <c r="J15" s="570"/>
-      <c r="K15" s="570"/>
-    </row>
-    <row r="16" spans="1:11" s="572" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="560" t="s">
-        <v>489</v>
-      </c>
-      <c r="B16" s="561" t="s">
+      <c r="B15" s="551"/>
+      <c r="C15" s="455"/>
+      <c r="D15" s="455"/>
+      <c r="E15" s="455"/>
+      <c r="F15" s="455"/>
+      <c r="G15" s="455"/>
+      <c r="H15" s="455"/>
+      <c r="I15" s="455"/>
+      <c r="J15" s="456"/>
+      <c r="K15" s="456"/>
+    </row>
+    <row r="16" spans="1:11" s="458" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="447" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B16" s="448" t="s">
         <v>1586</v>
       </c>
-      <c r="C16" s="561" t="s">
+      <c r="C16" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D16" s="561" t="s">
+      <c r="D16" s="448" t="s">
         <v>1588</v>
       </c>
-      <c r="E16" s="562"/>
-      <c r="F16" s="562"/>
-      <c r="G16" s="562"/>
-      <c r="H16" s="562"/>
-      <c r="I16" s="562"/>
-      <c r="J16" s="562"/>
-      <c r="K16" s="562"/>
-    </row>
-    <row r="17" spans="1:11" s="566" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="560" t="s">
-        <v>494</v>
-      </c>
-      <c r="B17" s="561" t="s">
+      <c r="E16" s="449"/>
+      <c r="F16" s="449"/>
+      <c r="G16" s="449"/>
+      <c r="H16" s="449"/>
+      <c r="I16" s="449"/>
+      <c r="J16" s="449"/>
+      <c r="K16" s="449"/>
+    </row>
+    <row r="17" spans="1:11" s="453" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="447" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B17" s="448" t="s">
         <v>1589</v>
       </c>
-      <c r="C17" s="561" t="s">
+      <c r="C17" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D17" s="561" t="s">
+      <c r="D17" s="448" t="s">
         <v>1590</v>
       </c>
-      <c r="E17" s="562"/>
-      <c r="F17" s="562"/>
-      <c r="G17" s="562"/>
-      <c r="H17" s="562"/>
-      <c r="I17" s="562"/>
-      <c r="J17" s="562"/>
-      <c r="K17" s="562"/>
-    </row>
-    <row r="18" spans="1:11" s="572" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="560" t="s">
-        <v>490</v>
-      </c>
-      <c r="B18" s="561" t="s">
+      <c r="E17" s="449"/>
+      <c r="F17" s="449"/>
+      <c r="G17" s="449"/>
+      <c r="H17" s="449"/>
+      <c r="I17" s="449"/>
+      <c r="J17" s="449"/>
+      <c r="K17" s="449"/>
+    </row>
+    <row r="18" spans="1:11" s="458" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="447" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B18" s="448" t="s">
         <v>1591</v>
       </c>
-      <c r="C18" s="561" t="s">
+      <c r="C18" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D18" s="561" t="s">
+      <c r="D18" s="448" t="s">
         <v>1592</v>
       </c>
-      <c r="E18" s="562"/>
-      <c r="F18" s="562"/>
-      <c r="G18" s="562"/>
-      <c r="H18" s="562"/>
-      <c r="I18" s="562"/>
-      <c r="J18" s="562"/>
-      <c r="K18" s="562"/>
-    </row>
-    <row r="19" spans="1:11" s="564" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="564" t="s">
+      <c r="E18" s="449"/>
+      <c r="F18" s="449"/>
+      <c r="G18" s="449"/>
+      <c r="H18" s="449"/>
+      <c r="I18" s="449"/>
+      <c r="J18" s="449"/>
+      <c r="K18" s="449"/>
+    </row>
+    <row r="19" spans="1:11" s="451" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="451" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="566" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="560" t="s">
+    <row r="20" spans="1:11" s="453" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="447" t="s">
         <v>1625</v>
       </c>
-      <c r="B20" s="561" t="s">
+      <c r="B20" s="448" t="s">
         <v>1594</v>
       </c>
-      <c r="C20" s="561" t="s">
+      <c r="C20" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D20" s="561" t="s">
+      <c r="D20" s="448" t="s">
         <v>1595</v>
       </c>
-      <c r="E20" s="562"/>
-      <c r="F20" s="562"/>
-      <c r="G20" s="562"/>
-      <c r="H20" s="562"/>
-      <c r="I20" s="562"/>
-      <c r="J20" s="562"/>
-      <c r="K20" s="562"/>
-    </row>
-    <row r="21" spans="1:11" s="566" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="560" t="s">
+      <c r="E20" s="449"/>
+      <c r="F20" s="449"/>
+      <c r="G20" s="449"/>
+      <c r="H20" s="449"/>
+      <c r="I20" s="449"/>
+      <c r="J20" s="449"/>
+      <c r="K20" s="449"/>
+    </row>
+    <row r="21" spans="1:11" s="453" customFormat="1" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="447" t="s">
         <v>1626</v>
       </c>
-      <c r="B21" s="561" t="s">
+      <c r="B21" s="448" t="s">
         <v>1596</v>
       </c>
-      <c r="C21" s="561" t="s">
+      <c r="C21" s="448" t="s">
         <v>1587</v>
       </c>
-      <c r="D21" s="561" t="s">
+      <c r="D21" s="448" t="s">
         <v>1597</v>
       </c>
     </row>
